--- a/artfynd/A 4896-2021.xlsx
+++ b/artfynd/A 4896-2021.xlsx
@@ -1352,10 +1352,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>110046155</v>
+        <v>110046148</v>
       </c>
       <c r="B8" t="n">
-        <v>81236</v>
+        <v>78098</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1368,21 +1368,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1312</v>
+        <v>6453</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1392,10 +1392,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>730414.7718965814</v>
+        <v>730378.4553517678</v>
       </c>
       <c r="R8" t="n">
-        <v>7376382.768500465</v>
+        <v>7376568.376099556</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1457,17 +1457,17 @@
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Rasmus Häggqvist</t>
+          <t>Robert Sandberg</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>110046052</v>
+        <v>110046156</v>
       </c>
       <c r="B9" t="n">
-        <v>77259</v>
+        <v>78098</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1480,21 +1480,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>228912</v>
+        <v>6453</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1504,10 +1504,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>730361.5117082358</v>
+        <v>730373.7458103633</v>
       </c>
       <c r="R9" t="n">
-        <v>7376418.170894846</v>
+        <v>7376547.475861446</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1569,17 +1569,17 @@
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Linda Spjut</t>
+          <t>Rasmus Häggqvist</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>110046170</v>
+        <v>110046158</v>
       </c>
       <c r="B10" t="n">
-        <v>56395</v>
+        <v>77258</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1592,21 +1592,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100109</v>
+        <v>6446</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1616,10 +1616,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>730426.7096293157</v>
+        <v>730374.7825402109</v>
       </c>
       <c r="R10" t="n">
-        <v>7376399.040735548</v>
+        <v>7376554.398445786</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1681,17 +1681,17 @@
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Frédéric Forsmark</t>
+          <t>Rasmus Häggqvist</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>110049842</v>
+        <v>110046134</v>
       </c>
       <c r="B11" t="n">
-        <v>77177</v>
+        <v>81236</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1704,21 +1704,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>353</v>
+        <v>1312</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1728,10 +1728,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>730532.734193347</v>
+        <v>730383.5096258806</v>
       </c>
       <c r="R11" t="n">
-        <v>7376460.51517869</v>
+        <v>7376429.645832454</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1758,7 +1758,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2022-09-15</t>
+          <t>2022-06-02</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -1768,12 +1768,17 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2022-09-15</t>
+          <t>2022-06-02</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>på flera granar</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1793,17 +1798,17 @@
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Frédéric Forsmark</t>
+          <t>Robert Sandberg</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>110046148</v>
+        <v>110046155</v>
       </c>
       <c r="B12" t="n">
-        <v>78098</v>
+        <v>81236</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1816,21 +1821,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6453</v>
+        <v>1312</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1840,10 +1845,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>730378.4553517678</v>
+        <v>730414.7718965814</v>
       </c>
       <c r="R12" t="n">
-        <v>7376568.376099556</v>
+        <v>7376382.768500465</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1905,17 +1910,17 @@
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Robert Sandberg</t>
+          <t>Rasmus Häggqvist</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>110046051</v>
+        <v>110046052</v>
       </c>
       <c r="B13" t="n">
-        <v>78098</v>
+        <v>77259</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1928,21 +1933,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6453</v>
+        <v>228912</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1952,10 +1957,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>730363.3455545675</v>
+        <v>730361.5117082358</v>
       </c>
       <c r="R13" t="n">
-        <v>7376420.333717911</v>
+        <v>7376418.170894846</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2024,10 +2029,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>110046156</v>
+        <v>110046170</v>
       </c>
       <c r="B14" t="n">
-        <v>78098</v>
+        <v>56395</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2040,21 +2045,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6453</v>
+        <v>100109</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2064,10 +2069,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>730373.7458103633</v>
+        <v>730426.7096293157</v>
       </c>
       <c r="R14" t="n">
-        <v>7376547.475861446</v>
+        <v>7376399.040735548</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2129,17 +2134,17 @@
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Rasmus Häggqvist</t>
+          <t>Frédéric Forsmark</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>110046158</v>
+        <v>110049842</v>
       </c>
       <c r="B15" t="n">
-        <v>77258</v>
+        <v>77177</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2152,21 +2157,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6446</v>
+        <v>353</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2176,10 +2181,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>730374.7825402109</v>
+        <v>730532.734193347</v>
       </c>
       <c r="R15" t="n">
-        <v>7376554.398445786</v>
+        <v>7376460.51517869</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2206,7 +2211,7 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>2022-06-02</t>
+          <t>2022-09-15</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
@@ -2216,7 +2221,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2022-06-02</t>
+          <t>2022-09-15</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
@@ -2241,17 +2246,17 @@
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Rasmus Häggqvist</t>
+          <t>Frédéric Forsmark</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>110046134</v>
+        <v>110046051</v>
       </c>
       <c r="B16" t="n">
-        <v>81236</v>
+        <v>78098</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2264,21 +2269,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1312</v>
+        <v>6453</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2288,10 +2293,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>730383.5096258806</v>
+        <v>730363.3455545675</v>
       </c>
       <c r="R16" t="n">
-        <v>7376429.645832454</v>
+        <v>7376420.333717911</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2336,11 +2341,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>på flera granar</t>
-        </is>
-      </c>
       <c r="AD16" t="b">
         <v>0</v>
       </c>
@@ -2358,7 +2358,7 @@
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Robert Sandberg</t>
+          <t>Linda Spjut</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>

--- a/artfynd/A 4896-2021.xlsx
+++ b/artfynd/A 4896-2021.xlsx
@@ -1352,10 +1352,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>110046148</v>
+        <v>110046155</v>
       </c>
       <c r="B8" t="n">
-        <v>78098</v>
+        <v>81236</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1368,21 +1368,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6453</v>
+        <v>1312</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1392,10 +1392,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>730378.4553517678</v>
+        <v>730414.7718965814</v>
       </c>
       <c r="R8" t="n">
-        <v>7376568.376099556</v>
+        <v>7376382.768500465</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1457,17 +1457,17 @@
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Robert Sandberg</t>
+          <t>Rasmus Häggqvist</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>110046156</v>
+        <v>110046052</v>
       </c>
       <c r="B9" t="n">
-        <v>78098</v>
+        <v>77259</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1480,21 +1480,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6453</v>
+        <v>228912</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1504,10 +1504,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>730373.7458103633</v>
+        <v>730361.5117082358</v>
       </c>
       <c r="R9" t="n">
-        <v>7376547.475861446</v>
+        <v>7376418.170894846</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1569,17 +1569,17 @@
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Rasmus Häggqvist</t>
+          <t>Linda Spjut</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>110046158</v>
+        <v>110046170</v>
       </c>
       <c r="B10" t="n">
-        <v>77258</v>
+        <v>56395</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1592,21 +1592,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6446</v>
+        <v>100109</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1616,10 +1616,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>730374.7825402109</v>
+        <v>730426.7096293157</v>
       </c>
       <c r="R10" t="n">
-        <v>7376554.398445786</v>
+        <v>7376399.040735548</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1681,17 +1681,17 @@
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Rasmus Häggqvist</t>
+          <t>Frédéric Forsmark</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>110046134</v>
+        <v>110049842</v>
       </c>
       <c r="B11" t="n">
-        <v>81236</v>
+        <v>77177</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1704,21 +1704,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1312</v>
+        <v>353</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1728,10 +1728,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>730383.5096258806</v>
+        <v>730532.734193347</v>
       </c>
       <c r="R11" t="n">
-        <v>7376429.645832454</v>
+        <v>7376460.51517869</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1758,7 +1758,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2022-06-02</t>
+          <t>2022-09-15</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -1768,17 +1768,12 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2022-06-02</t>
+          <t>2022-09-15</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>på flera granar</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1798,17 +1793,17 @@
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Robert Sandberg</t>
+          <t>Frédéric Forsmark</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>110046155</v>
+        <v>110046148</v>
       </c>
       <c r="B12" t="n">
-        <v>81236</v>
+        <v>78098</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1821,21 +1816,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1312</v>
+        <v>6453</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1845,10 +1840,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>730414.7718965814</v>
+        <v>730378.4553517678</v>
       </c>
       <c r="R12" t="n">
-        <v>7376382.768500465</v>
+        <v>7376568.376099556</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1910,17 +1905,17 @@
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Rasmus Häggqvist</t>
+          <t>Robert Sandberg</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>110046052</v>
+        <v>110046051</v>
       </c>
       <c r="B13" t="n">
-        <v>77259</v>
+        <v>78098</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1933,21 +1928,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>228912</v>
+        <v>6453</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1957,10 +1952,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>730361.5117082358</v>
+        <v>730363.3455545675</v>
       </c>
       <c r="R13" t="n">
-        <v>7376418.170894846</v>
+        <v>7376420.333717911</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2029,10 +2024,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>110046170</v>
+        <v>110046156</v>
       </c>
       <c r="B14" t="n">
-        <v>56395</v>
+        <v>78098</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2045,21 +2040,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>100109</v>
+        <v>6453</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2069,10 +2064,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>730426.7096293157</v>
+        <v>730373.7458103633</v>
       </c>
       <c r="R14" t="n">
-        <v>7376399.040735548</v>
+        <v>7376547.475861446</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2134,17 +2129,17 @@
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Frédéric Forsmark</t>
+          <t>Rasmus Häggqvist</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>110049842</v>
+        <v>110046158</v>
       </c>
       <c r="B15" t="n">
-        <v>77177</v>
+        <v>77258</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2157,21 +2152,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>353</v>
+        <v>6446</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2181,10 +2176,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>730532.734193347</v>
+        <v>730374.7825402109</v>
       </c>
       <c r="R15" t="n">
-        <v>7376460.51517869</v>
+        <v>7376554.398445786</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2211,7 +2206,7 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>2022-09-15</t>
+          <t>2022-06-02</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
@@ -2221,7 +2216,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2022-09-15</t>
+          <t>2022-06-02</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
@@ -2246,17 +2241,17 @@
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Frédéric Forsmark</t>
+          <t>Rasmus Häggqvist</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>110046051</v>
+        <v>110046134</v>
       </c>
       <c r="B16" t="n">
-        <v>78098</v>
+        <v>81236</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2269,21 +2264,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6453</v>
+        <v>1312</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2293,10 +2288,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>730363.3455545675</v>
+        <v>730383.5096258806</v>
       </c>
       <c r="R16" t="n">
-        <v>7376420.333717911</v>
+        <v>7376429.645832454</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2341,6 +2336,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>på flera granar</t>
+        </is>
+      </c>
       <c r="AD16" t="b">
         <v>0</v>
       </c>
@@ -2358,7 +2358,7 @@
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Linda Spjut</t>
+          <t>Robert Sandberg</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
